--- a/2017-11 Resident Schedule.xlsx
+++ b/2017-11 Resident Schedule.xlsx
@@ -165,16 +165,14 @@
   <si>
     <t>!Residents Switch:
 Churilla w/ Galloway
-Dong w/ Horwitz/Sobczak</t>
+Dong w/ Horwitz/Sobczak
+Brooke w/ Hallman</t>
   </si>
   <si>
     <t>Adv Cervical: VA (Anderson/Howell)</t>
   </si>
   <si>
     <t>ASTRO Research Meeting w/ TJG</t>
-  </si>
-  <si>
-    <t>NSCLC Unresectable: DL (Hallman)</t>
   </si>
   <si>
     <t>Call: Wong</t>
@@ -308,6 +306,10 @@
   </si>
   <si>
     <t>at BK</t>
+  </si>
+  <si>
+    <t>NSCLC Unresectable: DL (?JEM/MAH) 
+Room E</t>
   </si>
 </sst>
 </file>
@@ -577,7 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -696,6 +698,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -709,12 +714,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1346,7 +1353,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="67" zoomScaleNormal="70" zoomScalePageLayoutView="67" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1669,13 +1676,13 @@
       <c r="D17" s="29">
         <v>43054</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="16">
         <v>43055</v>
       </c>
       <c r="F17" s="15">
         <v>43056</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="41">
         <v>43057</v>
       </c>
     </row>
@@ -1690,47 +1697,47 @@
       <c r="D18" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="41"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="41"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="41"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="str">
@@ -1738,7 +1745,7 @@
         <v>Call: Leachman</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="27" t="str">
         <f>B21</f>
@@ -1748,15 +1755,15 @@
         <f>B21</f>
         <v>Call: Wong</v>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="28" t="str">
         <f>B21</f>
         <v>Call: Wong</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1783,7 +1790,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="18" t="s">
         <v>27</v>
       </c>
@@ -1794,53 +1801,53 @@
         <v>42</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G23" s="48"/>
+      <c r="G23" s="51"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="50"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="48"/>
+      <c r="G24" s="51"/>
     </row>
     <row r="25" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
-      <c r="B25" s="51" t="s">
-        <v>50</v>
+      <c r="B25" s="54" t="s">
+        <v>49</v>
       </c>
       <c r="C25" s="32"/>
       <c r="D25" s="31"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="53" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="54"/>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="57" t="str">
+      <c r="C26" s="60" t="str">
         <f>B26</f>
         <v>Call: Hansen</v>
       </c>
-      <c r="D26" s="56" t="str">
+      <c r="D26" s="59" t="str">
         <f>B26</f>
         <v>Call: Hansen</v>
       </c>
@@ -1852,7 +1859,7 @@
         <f>B26</f>
         <v>Call: Hansen</v>
       </c>
-      <c r="G26" s="58" t="str">
+      <c r="G26" s="61" t="str">
         <f>B26</f>
         <v>Call: Hansen</v>
       </c>
@@ -1881,7 +1888,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="18" t="s">
         <v>26</v>
       </c>
@@ -1895,48 +1902,48 @@
         <v>37</v>
       </c>
       <c r="F28" s="18"/>
-      <c r="G28" s="48"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="60"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="48"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20"/>
       <c r="B30" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="54"/>
+      <c r="E30" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="str">
+      <c r="A31" s="64" t="str">
         <f>B26</f>
         <v>Call: Hansen</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="57" t="str">
+      <c r="C31" s="60" t="str">
         <f>B31</f>
         <v>Call: Avkshtol</v>
       </c>
-      <c r="D31" s="57" t="str">
+      <c r="D31" s="60" t="str">
         <f>B31</f>
         <v>Call: Avkshtol</v>
       </c>
@@ -1945,226 +1952,226 @@
         <v>Call: Avkshtol</v>
       </c>
       <c r="F31" s="27"/>
-      <c r="G31" s="58"/>
+      <c r="G31" s="61"/>
     </row>
     <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" s="13" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
+      <c r="A33" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="C33" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="D33" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="65" t="s">
+      <c r="E33" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="65" t="s">
+      <c r="F33" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="G33" s="69"/>
+    </row>
+    <row r="34" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="66"/>
-    </row>
-    <row r="34" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="67" t="s">
+      <c r="B34" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="68" t="s">
+      <c r="C34" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="D34" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="71">
+      <c r="E34" s="74">
         <f>COUNTIF(B7:F31,"AM: Avkshtol")</f>
         <v>3</v>
       </c>
-      <c r="F34" s="72">
+      <c r="F34" s="75">
         <f>COUNTIF(B7:F31,"*: VA*")+[1]Oct17!F34</f>
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="67"/>
-      <c r="B35" s="73" t="s">
+    <row r="35" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="70"/>
+      <c r="B35" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="D35" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="76">
+      <c r="E35" s="79">
         <f>COUNTIF(B7:F31,"AM: Churilla")</f>
         <v>3</v>
       </c>
-      <c r="F35" s="77">
+      <c r="F35" s="80">
         <f>COUNTIF(B7:F31,"*: TC*")+[1]Oct17!F35</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="67" t="s">
+    <row r="36" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="C36" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="D36" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="71">
+      <c r="E36" s="74">
         <f>COUNTIF(B7:F31,"AM: Dong")</f>
         <v>3</v>
       </c>
-      <c r="F36" s="72">
+      <c r="F36" s="75">
         <f>COUNTIF(B7:F31,"*: YD*")+[1]Oct17!F36</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="67"/>
-      <c r="B37" s="73" t="s">
+    <row r="37" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="70"/>
+      <c r="B37" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="D37" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="76">
+      <c r="E37" s="79">
         <f>COUNTIF(B7:F31,"AM: Hansen")</f>
         <v>3</v>
       </c>
-      <c r="F37" s="77">
+      <c r="F37" s="80">
         <f>COUNTIF(B7:F31,"*: CH *")+[1]Oct17!F37</f>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="67" t="s">
+    <row r="38" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="B38" s="68" t="s">
+      <c r="C38" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="D38" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="71">
+      <c r="E38" s="74">
         <v>2</v>
       </c>
-      <c r="F38" s="72">
+      <c r="F38" s="75">
         <f>COUNTIF(B7:F31,"*: BL*")+[1]Oct17!F38</f>
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="73" t="s">
+    <row r="39" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="70"/>
+      <c r="B39" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="D39" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="80">
+      <c r="E39" s="83">
         <v>3</v>
       </c>
-      <c r="F39" s="77">
+      <c r="F39" s="80">
         <f>COUNTIF(B7:F31,"*: DL*")+[1]Oct17!F39</f>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="67" t="s">
+    <row r="40" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="C40" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="71">
+      <c r="D40" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E40" s="74">
         <f>COUNTIF(B7:F31,"AM: Paly")</f>
         <v>3</v>
       </c>
-      <c r="F40" s="72">
+      <c r="F40" s="75">
         <f>COUNTIF(B7:F31,"*: JP*")+[1]Oct17!F40</f>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="73" t="s">
+    <row r="41" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="70"/>
+      <c r="B41" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="D41" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="76">
+      <c r="E41" s="79">
         <f>COUNTIF(B7:F31,"AM: Wong")</f>
         <v>2</v>
       </c>
-      <c r="F41" s="77">
+      <c r="F41" s="80">
         <f>COUNTIF(B7:F31,"*: KW*")+[1]Oct17!F41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="66" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68" t="s">
+    <row r="42" spans="1:7" s="69" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="70"/>
+      <c r="B42" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="79" t="s">
+      <c r="D42" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="71">
+      <c r="E42" s="74">
         <f>COUNTIF(B7:F31,"AM: Zhang")</f>
         <v>0</v>
       </c>
-      <c r="F42" s="72">
+      <c r="F42" s="75">
         <f>COUNTIF(B7:F31,"*: EZ*")+[1]Oct17!F42</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F43" s="76"/>
-    </row>
-    <row r="44" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F43" s="79"/>
+    </row>
+    <row r="44" spans="1:7" s="65" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
